--- a/petugas/Laporan_Unggah_Arsip_Petugas.xlsx
+++ b/petugas/Laporan_Unggah_Arsip_Petugas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -29,25 +29,13 @@
     <t>Nama File</t>
   </si>
   <si>
-    <t>2024-07-02 11:09:58</t>
-  </si>
-  <si>
-    <t>Dzulqa</t>
-  </si>
-  <si>
-    <t>Pelaksanaan acara 17 Agustus</t>
-  </si>
-  <si>
-    <t>2024-07-02 11:09:27</t>
-  </si>
-  <si>
-    <t>Surat Keputusan Lurah</t>
-  </si>
-  <si>
-    <t>2024-07-02 10:29:33</t>
-  </si>
-  <si>
-    <t>Bantuan Sosial</t>
+    <t>2024-07-02 14:34:17</t>
+  </si>
+  <si>
+    <t>Jhony Andrean</t>
+  </si>
+  <si>
+    <t>SKP Juni</t>
   </si>
 </sst>
 </file>
@@ -387,7 +375,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,34 +411,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
